--- a/Courses/Computer-Modeling-and-IT/Computer-Modeling-and-IT-6-Class/12-Tabular-Data-Processing-Exam-Project/Resources/bus_agency.xlsx
+++ b/Courses/Computer-Modeling-and-IT/Computer-Modeling-and-IT-6-Class/12-Tabular-Data-Processing-Exam-Project/Resources/bus_agency.xlsx
@@ -66,10 +66,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;лв.&quot;"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +385,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,140 +400,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.375</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>35</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>30</v>
       </c>
       <c r="F4" s="1">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>28</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>25</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>38</v>
       </c>
     </row>
